--- a/data/input/employee_absence_data_32.xlsx
+++ b/data/input/employee_absence_data_32.xlsx
@@ -464,69 +464,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1549</v>
+        <v>3472</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ísis Martins</t>
+          <t>Emanuelly Montenegro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>6812.11</v>
+        <v>3675.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16566</v>
+        <v>35781</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Ana Sophia Machado</t>
+          <t>Ana Liz Vasconcelos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>11090.43</v>
+        <v>2138.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>58073</v>
+        <v>56333</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Noah da Costa</t>
+          <t>Oliver Pires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,113 +536,113 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45094</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>9320.67</v>
+        <v>2412.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94413</v>
+        <v>32665</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Cavalcanti</t>
+          <t>Isadora Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45104</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>2576.39</v>
+        <v>9661.809999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8101</v>
+        <v>58190</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Luiza Gonçalves</t>
+          <t>Cecilia da Rosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45102</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>2888.82</v>
+        <v>2335.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42785</v>
+        <v>89817</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitória Machado</t>
+          <t>Ana Cecília Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>11200.25</v>
+        <v>9145.799999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51018</v>
+        <v>93016</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isabel Andrade</t>
+          <t>Srta. Raquel Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,104 +652,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>10912.08</v>
+        <v>5777.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54913</v>
+        <v>75848</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isis Melo</t>
+          <t>Gabriela das Neves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45093</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>9600.790000000001</v>
+        <v>4010.79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65104</v>
+        <v>13457</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Juliana da Cruz</t>
+          <t>Luiz Fernando Peixoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>4847.24</v>
+        <v>7114.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35139</v>
+        <v>54793</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>José Miguel da Rosa</t>
+          <t>Luiz Miguel Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45103</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>6455.33</v>
+        <v>9441.549999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_32.xlsx
+++ b/data/input/employee_absence_data_32.xlsx
@@ -464,132 +464,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3472</v>
+        <v>71363</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuelly Montenegro</t>
+          <t>Srta. Marina Garcia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>3675.83</v>
+        <v>3783.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35781</v>
+        <v>51307</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Liz Vasconcelos</t>
+          <t>Esther Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>2138.3</v>
+        <v>8198.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56333</v>
+        <v>69337</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oliver Pires</t>
+          <t>Luna Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>2412.23</v>
+        <v>7506.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32665</v>
+        <v>95451</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isadora Rodrigues</t>
+          <t>Ester Jesus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>9661.809999999999</v>
+        <v>5342.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58190</v>
+        <v>39989</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cecilia da Rosa</t>
+          <t>Caleb Rios</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,143 +598,143 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45080</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>2335.09</v>
+        <v>2304.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89817</v>
+        <v>67279</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Cecília Moreira</t>
+          <t>Sr. José Miguel Casa Grande</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>9145.799999999999</v>
+        <v>7173.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93016</v>
+        <v>27068</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Raquel Ramos</t>
+          <t>Ana Carolina Cirino</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>5777.32</v>
+        <v>2662.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>75848</v>
+        <v>21125</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabriela das Neves</t>
+          <t>Lara Brito</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>4010.79</v>
+        <v>2271.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13457</v>
+        <v>19543</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Fernando Peixoto</t>
+          <t>Fernando Ferreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>7114.92</v>
+        <v>9215.639999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54793</v>
+        <v>89120</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Miguel Moura</t>
+          <t>Maysa Costela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>9441.549999999999</v>
+        <v>7646.19</v>
       </c>
     </row>
   </sheetData>
